--- a/app/static/sheet7.xlsx
+++ b/app/static/sheet7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D5EF8C-9089-1E42-8EDD-5C673B6E622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94627121-2171-1747-8571-943446E07918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>林園區立汯水泥公司大型鐵皮掛在電線桿上面、小型工廠全部沒電、聯絡電話許先生0932725822</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>表七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,20 +418,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,7 +774,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -790,54 +786,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="14"/>
       <c r="K1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="48.75" customHeight="1">
@@ -845,60 +841,38 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1">
       <c r="A6" s="5"/>
